--- a/signal_map/signalmap_safestrip_interfaces_v6.2.xlsx
+++ b/signal_map/signalmap_safestrip_interfaces_v6.2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/giammarco/GoogleDriveUNITN/PHDxxx/Projects/SAFESTRIP/MQTT_for_safestrip/signal_map/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B12E8A33-1D02-A64D-B87B-BEC248CD67B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2D8441E-2206-5444-89BA-BE4647FEF01D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-2480" yWindow="-21140" windowWidth="38400" windowHeight="21140" xr2:uid="{FBF927E7-8919-754A-9B9B-553D825B3903}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19640" xr2:uid="{FBF927E7-8919-754A-9B9B-553D825B3903}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2756,6 +2756,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="29" fillId="17" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2805,9 +2808,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="29" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3130,15 +3130,15 @@
   <dimension ref="A1:P273"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="75" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A129" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B268" sqref="B268"/>
+      <pane ySplit="1" topLeftCell="A138" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A60" sqref="A60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="41" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="60.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.6640625" customWidth="1"/>
-    <col min="3" max="3" width="43.83203125" customWidth="1"/>
+    <col min="3" max="3" width="73.33203125" customWidth="1"/>
     <col min="4" max="4" width="5.6640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3146,22 +3146,22 @@
       <c r="A1" s="1" t="s">
         <v>619</v>
       </c>
-      <c r="B1" s="124" t="s">
+      <c r="B1" s="125" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="125"/>
-      <c r="D1" s="125"/>
-      <c r="E1" s="125"/>
-      <c r="F1" s="125"/>
-      <c r="G1" s="125"/>
-      <c r="H1" s="126"/>
+      <c r="C1" s="126"/>
+      <c r="D1" s="126"/>
+      <c r="E1" s="126"/>
+      <c r="F1" s="126"/>
+      <c r="G1" s="126"/>
+      <c r="H1" s="127"/>
       <c r="I1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="127" t="s">
+      <c r="J1" s="128" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="128"/>
+      <c r="K1" s="129"/>
       <c r="L1" s="3" t="s">
         <v>3</v>
       </c>
@@ -3210,13 +3210,13 @@
       <c r="K2" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="129" t="s">
+      <c r="L2" s="130" t="s">
         <v>18</v>
       </c>
-      <c r="M2" s="130"/>
-      <c r="N2" s="130"/>
-      <c r="O2" s="130"/>
-      <c r="P2" s="131"/>
+      <c r="M2" s="131"/>
+      <c r="N2" s="131"/>
+      <c r="O2" s="131"/>
+      <c r="P2" s="132"/>
     </row>
     <row r="3" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
@@ -5542,7 +5542,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="60" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:16" ht="148" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="35" t="s">
         <v>216</v>
       </c>
@@ -8049,19 +8049,19 @@
       <c r="P122" s="17"/>
     </row>
     <row r="123" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="132" t="s">
+      <c r="A123" s="133" t="s">
         <v>350</v>
       </c>
-      <c r="B123" s="133"/>
-      <c r="C123" s="133"/>
-      <c r="D123" s="133"/>
-      <c r="E123" s="133"/>
-      <c r="F123" s="133"/>
-      <c r="G123" s="133"/>
-      <c r="H123" s="133"/>
-      <c r="I123" s="133"/>
-      <c r="J123" s="133"/>
-      <c r="K123" s="133"/>
+      <c r="B123" s="134"/>
+      <c r="C123" s="134"/>
+      <c r="D123" s="134"/>
+      <c r="E123" s="134"/>
+      <c r="F123" s="134"/>
+      <c r="G123" s="134"/>
+      <c r="H123" s="134"/>
+      <c r="I123" s="134"/>
+      <c r="J123" s="134"/>
+      <c r="K123" s="134"/>
       <c r="L123" s="17"/>
       <c r="M123" s="17"/>
       <c r="N123" s="17"/>
@@ -8531,19 +8531,19 @@
       <c r="P136" s="17"/>
     </row>
     <row r="137" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="134" t="s">
+      <c r="A137" s="135" t="s">
         <v>378</v>
       </c>
-      <c r="B137" s="135"/>
-      <c r="C137" s="135"/>
-      <c r="D137" s="135"/>
-      <c r="E137" s="135"/>
-      <c r="F137" s="135"/>
-      <c r="G137" s="135"/>
-      <c r="H137" s="135"/>
-      <c r="I137" s="135"/>
-      <c r="J137" s="135"/>
-      <c r="K137" s="136"/>
+      <c r="B137" s="136"/>
+      <c r="C137" s="136"/>
+      <c r="D137" s="136"/>
+      <c r="E137" s="136"/>
+      <c r="F137" s="136"/>
+      <c r="G137" s="136"/>
+      <c r="H137" s="136"/>
+      <c r="I137" s="136"/>
+      <c r="J137" s="136"/>
+      <c r="K137" s="137"/>
       <c r="L137" s="17"/>
       <c r="M137" s="17"/>
       <c r="N137" s="17"/>
@@ -8846,7 +8846,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="146" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:16" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="75" t="s">
         <v>371</v>
       </c>
@@ -8886,7 +8886,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="147" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:16" ht="94" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="75" t="s">
         <v>375</v>
       </c>
@@ -8925,19 +8925,19 @@
       </c>
     </row>
     <row r="148" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A148" s="120" t="s">
+      <c r="A148" s="121" t="s">
         <v>381</v>
       </c>
-      <c r="B148" s="121"/>
-      <c r="C148" s="121"/>
-      <c r="D148" s="121"/>
-      <c r="E148" s="121"/>
-      <c r="F148" s="121"/>
-      <c r="G148" s="121"/>
-      <c r="H148" s="121"/>
-      <c r="I148" s="121"/>
-      <c r="J148" s="121"/>
-      <c r="K148" s="121"/>
+      <c r="B148" s="122"/>
+      <c r="C148" s="122"/>
+      <c r="D148" s="122"/>
+      <c r="E148" s="122"/>
+      <c r="F148" s="122"/>
+      <c r="G148" s="122"/>
+      <c r="H148" s="122"/>
+      <c r="I148" s="122"/>
+      <c r="J148" s="122"/>
+      <c r="K148" s="122"/>
       <c r="L148" s="17"/>
       <c r="M148" s="17"/>
       <c r="N148" s="17"/>
@@ -9421,19 +9421,19 @@
       <c r="P162" s="17"/>
     </row>
     <row r="163" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A163" s="120" t="s">
+      <c r="A163" s="121" t="s">
         <v>402</v>
       </c>
-      <c r="B163" s="121"/>
-      <c r="C163" s="121"/>
-      <c r="D163" s="121"/>
-      <c r="E163" s="121"/>
-      <c r="F163" s="121"/>
-      <c r="G163" s="121"/>
-      <c r="H163" s="121"/>
-      <c r="I163" s="121"/>
-      <c r="J163" s="121"/>
-      <c r="K163" s="121"/>
+      <c r="B163" s="122"/>
+      <c r="C163" s="122"/>
+      <c r="D163" s="122"/>
+      <c r="E163" s="122"/>
+      <c r="F163" s="122"/>
+      <c r="G163" s="122"/>
+      <c r="H163" s="122"/>
+      <c r="I163" s="122"/>
+      <c r="J163" s="122"/>
+      <c r="K163" s="122"/>
       <c r="L163" s="17"/>
       <c r="M163" s="17"/>
       <c r="N163" s="17"/>
@@ -10521,19 +10521,19 @@
       <c r="P195" s="17"/>
     </row>
     <row r="196" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A196" s="122" t="s">
+      <c r="A196" s="123" t="s">
         <v>470</v>
       </c>
-      <c r="B196" s="123"/>
-      <c r="C196" s="123"/>
-      <c r="D196" s="123"/>
-      <c r="E196" s="123"/>
-      <c r="F196" s="123"/>
-      <c r="G196" s="123"/>
-      <c r="H196" s="123"/>
-      <c r="I196" s="123"/>
-      <c r="J196" s="123"/>
-      <c r="K196" s="123"/>
+      <c r="B196" s="124"/>
+      <c r="C196" s="124"/>
+      <c r="D196" s="124"/>
+      <c r="E196" s="124"/>
+      <c r="F196" s="124"/>
+      <c r="G196" s="124"/>
+      <c r="H196" s="124"/>
+      <c r="I196" s="124"/>
+      <c r="J196" s="124"/>
+      <c r="K196" s="124"/>
       <c r="L196" s="17"/>
       <c r="M196" s="17"/>
       <c r="N196" s="17"/>
@@ -13046,14 +13046,14 @@
       <c r="C267" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="D267" s="137">
+      <c r="D267" s="120">
         <v>1</v>
       </c>
       <c r="E267" s="18" t="s">
         <v>25</v>
       </c>
       <c r="F267" s="18"/>
-      <c r="G267" s="137">
+      <c r="G267" s="120">
         <v>1</v>
       </c>
       <c r="H267" s="18" t="s">
@@ -13080,14 +13080,14 @@
       <c r="C268" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="D268" s="137">
+      <c r="D268" s="120">
         <v>1</v>
       </c>
       <c r="E268" s="18" t="s">
         <v>477</v>
       </c>
       <c r="F268" s="18"/>
-      <c r="G268" s="137">
+      <c r="G268" s="120">
         <v>1</v>
       </c>
       <c r="H268" s="18"/>
@@ -13112,14 +13112,14 @@
       <c r="C269" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="D269" s="137">
+      <c r="D269" s="120">
         <v>1</v>
       </c>
       <c r="E269" s="18" t="s">
         <v>477</v>
       </c>
       <c r="F269" s="18"/>
-      <c r="G269" s="137">
+      <c r="G269" s="120">
         <v>1</v>
       </c>
       <c r="H269" s="18"/>
@@ -13144,14 +13144,14 @@
       <c r="C270" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="D270" s="137">
+      <c r="D270" s="120">
         <v>1</v>
       </c>
       <c r="E270" s="18" t="s">
         <v>477</v>
       </c>
       <c r="F270" s="18"/>
-      <c r="G270" s="137">
+      <c r="G270" s="120">
         <v>1</v>
       </c>
       <c r="H270" s="18"/>
@@ -13176,14 +13176,14 @@
       <c r="C271" s="18" t="s">
         <v>618</v>
       </c>
-      <c r="D271" s="137">
+      <c r="D271" s="120">
         <v>1</v>
       </c>
       <c r="E271" s="18" t="s">
         <v>477</v>
       </c>
       <c r="F271" s="18"/>
-      <c r="G271" s="137">
+      <c r="G271" s="120">
         <v>1</v>
       </c>
       <c r="H271" s="18"/>
@@ -13208,14 +13208,14 @@
       <c r="C272" s="18" t="s">
         <v>618</v>
       </c>
-      <c r="D272" s="137">
+      <c r="D272" s="120">
         <v>1</v>
       </c>
       <c r="E272" s="18" t="s">
         <v>477</v>
       </c>
       <c r="F272" s="18"/>
-      <c r="G272" s="137">
+      <c r="G272" s="120">
         <v>1</v>
       </c>
       <c r="H272" s="18"/>
@@ -13240,14 +13240,14 @@
       <c r="C273" s="18" t="s">
         <v>618</v>
       </c>
-      <c r="D273" s="137">
+      <c r="D273" s="120">
         <v>1</v>
       </c>
       <c r="E273" s="18" t="s">
         <v>477</v>
       </c>
       <c r="F273" s="18"/>
-      <c r="G273" s="137">
+      <c r="G273" s="120">
         <v>1</v>
       </c>
       <c r="H273" s="18"/>
